--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.0761643344719</v>
+        <v>384.6488498067746</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.4119434945893</v>
+        <v>526.2935258152355</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.6119264312654</v>
+        <v>476.0648103690315</v>
       </c>
       <c r="AD2" t="n">
-        <v>343076.1643344719</v>
+        <v>384648.8498067746</v>
       </c>
       <c r="AE2" t="n">
-        <v>469411.9434945893</v>
+        <v>526293.5258152356</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451138480191426e-06</v>
+        <v>4.14377121694332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.266059027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>424611.9264312654</v>
+        <v>476064.8103690315</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.7337514857336</v>
+        <v>208.8066118988834</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.1831598423912</v>
+        <v>285.6984182974941</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.9741003768124</v>
+        <v>258.4317622355138</v>
       </c>
       <c r="AD3" t="n">
-        <v>177733.7514857336</v>
+        <v>208806.6118988834</v>
       </c>
       <c r="AE3" t="n">
-        <v>243183.1598423912</v>
+        <v>285698.4182974941</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.775162202721978e-06</v>
+        <v>6.382099012908476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.366753472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>219974.1003768124</v>
+        <v>258431.7622355138</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.6046844927949</v>
+        <v>173.7627962519654</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.1180205976193</v>
+        <v>237.7499237053714</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.4962305616995</v>
+        <v>215.0594046711132</v>
       </c>
       <c r="AD4" t="n">
-        <v>142604.6844927949</v>
+        <v>173762.7962519654</v>
       </c>
       <c r="AE4" t="n">
-        <v>195118.0205976193</v>
+        <v>237749.9237053714</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.275790874903688e-06</v>
+        <v>7.228436622524522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>176496.2305616995</v>
+        <v>215059.4046711132</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.4158973658417</v>
+        <v>150.1596144289825</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.0725402023078</v>
+        <v>205.4550090362917</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.1729854883201</v>
+        <v>185.8466713318428</v>
       </c>
       <c r="AD5" t="n">
-        <v>129415.8973658418</v>
+        <v>150159.6144289825</v>
       </c>
       <c r="AE5" t="n">
-        <v>177072.5402023078</v>
+        <v>205455.0090362917</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.571387737292217e-06</v>
+        <v>7.728157784785694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.431423611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>160172.9854883201</v>
+        <v>185846.6713318428</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.7099797368949</v>
+        <v>143.4536968000357</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.8972078581812</v>
+        <v>196.2796766921651</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.8733339854541</v>
+        <v>177.5470198289768</v>
       </c>
       <c r="AD6" t="n">
-        <v>122709.9797368949</v>
+        <v>143453.6968000357</v>
       </c>
       <c r="AE6" t="n">
-        <v>167897.2078581812</v>
+        <v>196279.6766921651</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.693230411144721e-06</v>
+        <v>7.934138870303959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>151873.3339854541</v>
+        <v>177547.0198289768</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.8026823083453</v>
+        <v>142.5463993714861</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.6558034893026</v>
+        <v>195.0382723232865</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.750407507219</v>
+        <v>176.4240933507417</v>
       </c>
       <c r="AD7" t="n">
-        <v>121802.6823083453</v>
+        <v>142546.3993714861</v>
       </c>
       <c r="AE7" t="n">
-        <v>166655.8034893026</v>
+        <v>195038.2723232865</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.710876591495774e-06</v>
+        <v>7.963970613723846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>150750.407507219</v>
+        <v>176424.0933507417</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.9976435554403</v>
+        <v>279.2745740763122</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.007119744288</v>
+        <v>382.1157929758666</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.7980191933654</v>
+        <v>345.6471979971328</v>
       </c>
       <c r="AD2" t="n">
-        <v>238997.6435554403</v>
+        <v>279274.5740763122</v>
       </c>
       <c r="AE2" t="n">
-        <v>327007.119744288</v>
+        <v>382115.7929758666</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.009905014787684e-06</v>
+        <v>5.212526437987582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.963975694444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>295798.0191933654</v>
+        <v>345647.1979971328</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8505601912599</v>
+        <v>170.0369228682683</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.349706224872</v>
+        <v>232.6520193678668</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.0875588238237</v>
+        <v>210.4480371686248</v>
       </c>
       <c r="AD3" t="n">
-        <v>139850.5601912599</v>
+        <v>170036.9228682683</v>
       </c>
       <c r="AE3" t="n">
-        <v>191349.706224872</v>
+        <v>232652.0193678668</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230460470676782e-06</v>
+        <v>7.32627340063075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>173087.5588238237</v>
+        <v>210448.0371686248</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3601529739805</v>
+        <v>140.4560373156799</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.6820712141229</v>
+        <v>192.1781467382686</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.9650454702312</v>
+        <v>173.8369341373455</v>
       </c>
       <c r="AD4" t="n">
-        <v>120360.1529739805</v>
+        <v>140456.0373156799</v>
       </c>
       <c r="AE4" t="n">
-        <v>164682.0712141229</v>
+        <v>192178.1467382686</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.71416243499526e-06</v>
+        <v>8.163944112739399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>148965.0454702312</v>
+        <v>173836.9341373455</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.8032078912631</v>
+        <v>133.8990922329625</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.7105696799522</v>
+        <v>183.2066452040979</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.8497714508974</v>
+        <v>165.7216601180117</v>
       </c>
       <c r="AD5" t="n">
-        <v>113803.2078912631</v>
+        <v>133899.0922329625</v>
       </c>
       <c r="AE5" t="n">
-        <v>155710.5696799522</v>
+        <v>183206.6452040979</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.853052895196932e-06</v>
+        <v>8.404473362741843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.318576388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>140849.7714508974</v>
+        <v>165721.6601180117</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.1726780189507</v>
+        <v>134.2685623606501</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.2160950085258</v>
+        <v>183.7121705326715</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.3070501516213</v>
+        <v>166.1789388187356</v>
       </c>
       <c r="AD6" t="n">
-        <v>114172.6780189507</v>
+        <v>134268.5623606501</v>
       </c>
       <c r="AE6" t="n">
-        <v>156216.0950085258</v>
+        <v>183712.1705326714</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.851893864930992e-06</v>
+        <v>8.402466164549889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.320746527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>141307.0501516213</v>
+        <v>166178.9388187357</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7812777142414</v>
+        <v>130.0420336978155</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.6298785585173</v>
+        <v>177.9292475548993</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.2083603242045</v>
+        <v>160.9479298935768</v>
       </c>
       <c r="AD2" t="n">
-        <v>102781.2777142414</v>
+        <v>130042.0336978155</v>
       </c>
       <c r="AE2" t="n">
-        <v>140629.8785585173</v>
+        <v>177929.2475548993</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857776124252037e-06</v>
+        <v>9.191957770566648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.815538194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>127208.3603242045</v>
+        <v>160947.9298935768</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.14380219809695</v>
+        <v>114.459874278099</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.5481917325798</v>
+        <v>156.6090496004971</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.993416942704</v>
+        <v>141.6625017088503</v>
       </c>
       <c r="AD3" t="n">
-        <v>96143.80219809695</v>
+        <v>114459.874278099</v>
       </c>
       <c r="AE3" t="n">
-        <v>131548.1917325798</v>
+        <v>156609.0496004971</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.113420189806268e-06</v>
+        <v>9.675691354570023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>118993.416942704</v>
+        <v>141662.5017088503</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.3517532025038</v>
+        <v>173.6710533388286</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8766811983593</v>
+        <v>237.6243970042061</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8961698700194</v>
+        <v>214.9458580621292</v>
       </c>
       <c r="AD2" t="n">
-        <v>145351.7532025038</v>
+        <v>173671.0533388286</v>
       </c>
       <c r="AE2" t="n">
-        <v>198876.6811983593</v>
+        <v>237624.3970042061</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.092365743743077e-06</v>
+        <v>7.455401626469507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.466579861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>179896.1698700194</v>
+        <v>214945.8580621292</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0507855686857</v>
+        <v>120.9587957806097</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6303869779294</v>
+        <v>165.5011607124093</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3042588172723</v>
+        <v>149.7059622164007</v>
       </c>
       <c r="AD3" t="n">
-        <v>102050.7855686856</v>
+        <v>120958.7957806097</v>
       </c>
       <c r="AE3" t="n">
-        <v>139630.3869779294</v>
+        <v>165501.1607124093</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059393490853664e-06</v>
+        <v>9.217116167666693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.422743055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>126304.2588172723</v>
+        <v>149705.9622164007</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.0299430068268</v>
+        <v>120.9379532187509</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.6018692652853</v>
+        <v>165.4726429997652</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.2784627950981</v>
+        <v>149.6801661942264</v>
       </c>
       <c r="AD4" t="n">
-        <v>102029.9430068268</v>
+        <v>120937.9532187509</v>
       </c>
       <c r="AE4" t="n">
-        <v>139601.8692652853</v>
+        <v>165472.6429997652</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.073828279700607e-06</v>
+        <v>9.243413218073731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>126278.4627950981</v>
+        <v>149680.1661942264</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.64350373595059</v>
+        <v>117.9661127825806</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3906848375183</v>
+        <v>161.4064398066521</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.4235738635901</v>
+        <v>146.0020357269107</v>
       </c>
       <c r="AD2" t="n">
-        <v>91643.5037359506</v>
+        <v>117966.1127825806</v>
       </c>
       <c r="AE2" t="n">
-        <v>125390.6848375183</v>
+        <v>161406.4398066521</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072633124204402e-06</v>
+        <v>9.940726518675695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.789496527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>113423.57386359</v>
+        <v>146002.0357269107</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>267.4240212328194</v>
+        <v>307.9562549922916</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.9013437659063</v>
+        <v>421.3593341515679</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.9802330626488</v>
+        <v>381.1453906816812</v>
       </c>
       <c r="AD2" t="n">
-        <v>267424.0212328194</v>
+        <v>307956.2549922916</v>
       </c>
       <c r="AE2" t="n">
-        <v>365901.3437659063</v>
+        <v>421359.3341515679</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.860347917442482e-06</v>
+        <v>4.921174838268908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.261284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>330980.2330626488</v>
+        <v>381145.3906816812</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.5320969114048</v>
+        <v>176.8835993999878</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.1741207028231</v>
+        <v>242.0199442526114</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.7336432182733</v>
+        <v>218.9219004503375</v>
       </c>
       <c r="AD3" t="n">
-        <v>156532.0969114048</v>
+        <v>176883.5993999878</v>
       </c>
       <c r="AE3" t="n">
-        <v>214174.1207028231</v>
+        <v>242019.9442526114</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.113012415503914e-06</v>
+        <v>7.076360566222097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.049913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>193733.6432182733</v>
+        <v>218921.9004503375</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.0472884121617</v>
+        <v>146.4840422467652</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.4634608193465</v>
+        <v>200.425929021784</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.0037901727835</v>
+        <v>181.29755965556</v>
       </c>
       <c r="AD4" t="n">
-        <v>126047.2884121617</v>
+        <v>146484.0422467652</v>
       </c>
       <c r="AE4" t="n">
-        <v>172463.4608193465</v>
+        <v>200425.929021784</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.593900811489291e-06</v>
+        <v>7.90372001431844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>156003.7901727835</v>
+        <v>181297.5596555599</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.4003200777153</v>
+        <v>136.6664817117266</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.2640531499575</v>
+        <v>186.9931095775482</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.0641154458719</v>
+        <v>169.1467496459972</v>
       </c>
       <c r="AD5" t="n">
-        <v>116400.3200777153</v>
+        <v>136666.4817117266</v>
       </c>
       <c r="AE5" t="n">
-        <v>159264.0531499575</v>
+        <v>186993.1095775482</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804959512354689e-06</v>
+        <v>8.266842542792253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>144064.1154458719</v>
+        <v>169146.7496459972</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.915178735271</v>
+        <v>136.1813403692823</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.6002613623001</v>
+        <v>186.3293177898908</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.4636750147907</v>
+        <v>168.546309214916</v>
       </c>
       <c r="AD6" t="n">
-        <v>115915.178735271</v>
+        <v>136181.3403692823</v>
       </c>
       <c r="AE6" t="n">
-        <v>158600.2613623001</v>
+        <v>186329.3177898908</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.824677468081796e-06</v>
+        <v>8.300766915066903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>143463.6750147906</v>
+        <v>168546.309214916</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.74727789939514</v>
+        <v>115.9823183737885</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.1103820443359</v>
+        <v>158.6921247777116</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.2156368106728</v>
+        <v>143.5467711147664</v>
       </c>
       <c r="AD2" t="n">
-        <v>98747.27789939515</v>
+        <v>115982.3183737885</v>
       </c>
       <c r="AE2" t="n">
-        <v>135110.3820443359</v>
+        <v>158692.1247777116</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.970156248067696e-06</v>
+        <v>9.9634752960427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.002170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>122215.6368106728</v>
+        <v>143546.7711147664</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.9028429188913</v>
+        <v>222.2603468058152</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.9381799543106</v>
+        <v>304.1064119340432</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.7482904991105</v>
+        <v>275.0829227951779</v>
       </c>
       <c r="AD2" t="n">
-        <v>192902.8429188913</v>
+        <v>222260.3468058152</v>
       </c>
       <c r="AE2" t="n">
-        <v>263938.1799543105</v>
+        <v>304106.4119340432</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.502273207211648e-06</v>
+        <v>6.202786093036361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>238748.2904991104</v>
+        <v>275082.9227951778</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.0098343536495</v>
+        <v>149.3672487320223</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.2027498228195</v>
+        <v>204.3708593330038</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.5314698397817</v>
+        <v>184.8659913546226</v>
       </c>
       <c r="AD3" t="n">
-        <v>120009.8343536495</v>
+        <v>149367.2487320223</v>
       </c>
       <c r="AE3" t="n">
-        <v>164202.7498228195</v>
+        <v>204370.8593330038</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640208483806101e-06</v>
+        <v>8.218154024327795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.654947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>148531.4698397818</v>
+        <v>184865.9913546226</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.2517686950302</v>
+        <v>126.7950208376393</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.7466015425722</v>
+        <v>173.4865413115109</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.7413118515377</v>
+        <v>156.9292292986786</v>
       </c>
       <c r="AD4" t="n">
-        <v>107251.7686950302</v>
+        <v>126795.0208376393</v>
       </c>
       <c r="AE4" t="n">
-        <v>146746.6015425722</v>
+        <v>173486.5413115109</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>8.851051815431212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.320746527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>132741.3118515378</v>
+        <v>156929.2292986786</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.6039464198931</v>
+        <v>127.1471985625022</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.2284666427141</v>
+        <v>173.9684064116528</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.1771884228241</v>
+        <v>157.365105869965</v>
       </c>
       <c r="AD5" t="n">
-        <v>107603.9464198931</v>
+        <v>127147.1985625022</v>
       </c>
       <c r="AE5" t="n">
-        <v>147228.4666427141</v>
+        <v>173968.4064116528</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.997560961134539e-06</v>
+        <v>8.851051815431212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.320746527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>133177.1884228241</v>
+        <v>157365.105869965</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.0702479938302</v>
+        <v>262.9936739145638</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.2145544698035</v>
+        <v>359.8395471119398</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.0853057626133</v>
+        <v>325.4969657735518</v>
       </c>
       <c r="AD2" t="n">
-        <v>223070.2479938302</v>
+        <v>262993.6739145638</v>
       </c>
       <c r="AE2" t="n">
-        <v>305214.5544698035</v>
+        <v>359839.5471119398</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159105859003664e-06</v>
+        <v>5.509204767492299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.697048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>276085.3057626133</v>
+        <v>325496.9657735518</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.2746037577193</v>
+        <v>162.1958379846242</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.9839484048977</v>
+        <v>221.9235011058194</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.711094381752</v>
+        <v>200.7434336319338</v>
       </c>
       <c r="AD3" t="n">
-        <v>132274.6037577193</v>
+        <v>162195.8379846242</v>
       </c>
       <c r="AE3" t="n">
-        <v>180983.9484048977</v>
+        <v>221923.5011058194</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381991836893292e-06</v>
+        <v>7.6418111315012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.828559027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>163711.094381752</v>
+        <v>200743.4336319338</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.0489140249346</v>
+        <v>133.9680460665651</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.046755651831</v>
+        <v>183.3009908812613</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.1538723054601</v>
+        <v>165.8070015761616</v>
       </c>
       <c r="AD4" t="n">
-        <v>114048.9140249346</v>
+        <v>133968.0460665651</v>
       </c>
       <c r="AE4" t="n">
-        <v>156046.755651831</v>
+        <v>183300.9908812613</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.855662709209335e-06</v>
+        <v>8.46785177225668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>141153.8723054601</v>
+        <v>165807.0015761617</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.7283068757426</v>
+        <v>131.6474389173731</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.8715985723462</v>
+        <v>180.1258338017765</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.2817477612793</v>
+        <v>162.9348770319809</v>
       </c>
       <c r="AD5" t="n">
-        <v>111728.3068757426</v>
+        <v>131647.4389173731</v>
       </c>
       <c r="AE5" t="n">
-        <v>152871.5985723462</v>
+        <v>180125.8338017765</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.899539179473275e-06</v>
+        <v>8.544368505138518e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.318576388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>138281.7477612793</v>
+        <v>162934.8770319809</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.3530290244983</v>
+        <v>349.7027303198957</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.9022178868681</v>
+        <v>478.4787034193049</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.6364623552264</v>
+        <v>432.8133675140438</v>
       </c>
       <c r="AD2" t="n">
-        <v>308353.0290244983</v>
+        <v>349702.7303198957</v>
       </c>
       <c r="AE2" t="n">
-        <v>421902.217886868</v>
+        <v>478478.7034193049</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584514866801836e-06</v>
+        <v>4.393503981276888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.901475694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>381636.4623552264</v>
+        <v>432813.3675140438</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.5315436507522</v>
+        <v>191.2064838070017</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.3287813435899</v>
+        <v>261.6171465793421</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.0602099312264</v>
+        <v>236.6487732918575</v>
       </c>
       <c r="AD3" t="n">
-        <v>170531.5436507522</v>
+        <v>191206.4838070017</v>
       </c>
       <c r="AE3" t="n">
-        <v>233328.7813435899</v>
+        <v>261617.1465793421</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883454280959543e-06</v>
+        <v>6.601614896344385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.258246527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>211060.2099312264</v>
+        <v>236648.7732918574</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.63322714827</v>
+        <v>168.560162265246</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.3158533336247</v>
+        <v>230.631450360733</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.3432525944768</v>
+        <v>208.6203084316447</v>
       </c>
       <c r="AD4" t="n">
-        <v>137633.2271482699</v>
+        <v>168560.162265246</v>
       </c>
       <c r="AE4" t="n">
-        <v>188315.8533336247</v>
+        <v>230631.450360733</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363051096967924e-06</v>
+        <v>7.416897697618401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>170343.2525944768</v>
+        <v>208620.3084316447</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.604574738539</v>
+        <v>148.1941740402168</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.5942086737188</v>
+        <v>202.7658067872734</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.9311824424586</v>
+        <v>183.4141227711509</v>
       </c>
       <c r="AD5" t="n">
-        <v>127604.574738539</v>
+        <v>148194.1740402168</v>
       </c>
       <c r="AE5" t="n">
-        <v>174594.2086737188</v>
+        <v>202765.8067872734</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.58393291156205e-06</v>
+        <v>7.79238214318161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.455295138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>157931.1824424586</v>
+        <v>183414.1227711509</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.5986692471282</v>
+        <v>140.1882685488061</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.6401755847531</v>
+        <v>191.8117736983077</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.0225868974183</v>
+        <v>173.5055272261106</v>
       </c>
       <c r="AD6" t="n">
-        <v>119598.6692471282</v>
+        <v>140188.2685488061</v>
       </c>
       <c r="AE6" t="n">
-        <v>163640.1755847531</v>
+        <v>191811.7736983077</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.748911957571213e-06</v>
+        <v>8.072835587183445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>148022.5868974183</v>
+        <v>173505.5272261106</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.9603325364759</v>
+        <v>140.5499318381538</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.1350192526965</v>
+        <v>192.3066173662512</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.4702033802109</v>
+        <v>173.9531437089032</v>
       </c>
       <c r="AD7" t="n">
-        <v>119960.3325364759</v>
+        <v>140549.9318381537</v>
       </c>
       <c r="AE7" t="n">
-        <v>164135.0192526965</v>
+        <v>192306.6173662512</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746935597065684e-06</v>
+        <v>8.069475905310062e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>148470.2033802109</v>
+        <v>173953.1437089032</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.064615684641</v>
+        <v>185.8890547681026</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.9027363814347</v>
+        <v>254.3416055799113</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.392720839137</v>
+        <v>230.067599714124</v>
       </c>
       <c r="AD2" t="n">
-        <v>157064.615684641</v>
+        <v>185889.0547681026</v>
       </c>
       <c r="AE2" t="n">
-        <v>214902.7363814347</v>
+        <v>254341.6055799113</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.884658137995079e-06</v>
+        <v>7.004957888083408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.687934027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>194392.7208391369</v>
+        <v>230067.5997141241</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.5902128171231</v>
+        <v>125.7212541934103</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.8414316046347</v>
+        <v>172.0173664176365</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.9225300620627</v>
+        <v>155.6002703946752</v>
       </c>
       <c r="AD3" t="n">
-        <v>106590.2128171231</v>
+        <v>125721.2541934103</v>
       </c>
       <c r="AE3" t="n">
-        <v>145841.4316046347</v>
+        <v>172017.3664176365</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.961659600062278e-06</v>
+        <v>8.94704638575459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>131922.5300620627</v>
+        <v>155600.2703946752</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.0619747686845</v>
+        <v>123.1930161449717</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.382184768772</v>
+        <v>168.5581195817738</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.7934288891302</v>
+        <v>152.4711692217427</v>
       </c>
       <c r="AD4" t="n">
-        <v>104061.9747686845</v>
+        <v>123193.0161449717</v>
       </c>
       <c r="AE4" t="n">
-        <v>142382.184768772</v>
+        <v>168558.1195817738</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.040973661222266e-06</v>
+        <v>9.090068406900918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>128793.4288891302</v>
+        <v>152471.1692217427</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.0412287048179</v>
+        <v>141.5447592123211</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.3504373097662</v>
+        <v>193.6677840682726</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2833078542915</v>
+        <v>175.1844025712935</v>
       </c>
       <c r="AD2" t="n">
-        <v>123041.2287048179</v>
+        <v>141544.7592123211</v>
       </c>
       <c r="AE2" t="n">
-        <v>168350.4373097662</v>
+        <v>193667.7840682726</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.570557235640514e-06</v>
+        <v>8.527198856276718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.034722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>152283.3078542915</v>
+        <v>175184.4025712935</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.1351533863249</v>
+        <v>116.7239352398488</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.272846280526</v>
+        <v>159.7068376916817</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.4580342846718</v>
+        <v>144.4646412523861</v>
       </c>
       <c r="AD3" t="n">
-        <v>98135.15338632491</v>
+        <v>116723.9352398488</v>
       </c>
       <c r="AE3" t="n">
-        <v>134272.846280526</v>
+        <v>159706.8376916817</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.105300235573209e-06</v>
+        <v>9.52485836743456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.507378472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>121458.0342846718</v>
+        <v>144464.6412523861</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.25929172758585</v>
+        <v>121.0744188124919</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.9697213680935</v>
+        <v>165.6593612455586</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.6610321708976</v>
+        <v>149.8490643127022</v>
       </c>
       <c r="AD2" t="n">
-        <v>94259.29172758585</v>
+        <v>121074.4188124919</v>
       </c>
       <c r="AE2" t="n">
-        <v>128969.7213680935</v>
+        <v>165659.3612455587</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.089202350034515e-06</v>
+        <v>9.786724845100114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.678819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>116661.0321708976</v>
+        <v>149849.0643127022</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.27541215147075</v>
+        <v>121.0905392363769</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9917780432357</v>
+        <v>165.6814179207009</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.680983787921</v>
+        <v>149.8690159297256</v>
       </c>
       <c r="AD3" t="n">
-        <v>94275.41215147075</v>
+        <v>121090.5392363769</v>
       </c>
       <c r="AE3" t="n">
-        <v>128991.7780432357</v>
+        <v>165681.4179207009</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104671717127771e-06</v>
+        <v>9.816473011680386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.663628472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>116680.983787921</v>
+        <v>149869.0159297256</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.41124374170724</v>
+        <v>122.4468517914226</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.2823611681211</v>
+        <v>167.5371845948004</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.5620796812399</v>
+        <v>151.5476708370345</v>
       </c>
       <c r="AD2" t="n">
-        <v>97411.24374170724</v>
+        <v>122446.8517914226</v>
       </c>
       <c r="AE2" t="n">
-        <v>133282.3611681211</v>
+        <v>167537.1845948004</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.746438479904215e-06</v>
+        <v>9.790000787540439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120562.0796812399</v>
+        <v>151547.6708370345</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.9765995903142</v>
+        <v>236.6220261548553</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.1945147224658</v>
+        <v>323.7566952119663</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.1668277034346</v>
+        <v>292.857810616408</v>
       </c>
       <c r="AD2" t="n">
-        <v>206976.5995903142</v>
+        <v>236622.0261548553</v>
       </c>
       <c r="AE2" t="n">
-        <v>283194.5147224658</v>
+        <v>323756.6952119663</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.331267450578685e-06</v>
+        <v>5.852905499575472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.414930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>256166.8277034346</v>
+        <v>292857.810616408</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.1057400329729</v>
+        <v>155.7510770889631</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.543436905644</v>
+        <v>213.1054949255961</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.076133453652</v>
+        <v>192.7670055853987</v>
       </c>
       <c r="AD3" t="n">
-        <v>126105.7400329729</v>
+        <v>155751.0770889631</v>
       </c>
       <c r="AE3" t="n">
-        <v>172543.436905644</v>
+        <v>213105.4949255961</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.509146425876416e-06</v>
+        <v>7.922392394467933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>156076.133453652</v>
+        <v>192767.0055853988</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.6689418581212</v>
+        <v>128.4041424524752</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.6856403855797</v>
+        <v>175.6882124943637</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.4952915488274</v>
+        <v>158.9207760739056</v>
       </c>
       <c r="AD4" t="n">
-        <v>108668.9418581212</v>
+        <v>128404.1424524751</v>
       </c>
       <c r="AE4" t="n">
-        <v>148685.6403855798</v>
+        <v>175688.2124943637</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.986462653053751e-06</v>
+        <v>8.76101817655503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.286024305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>134495.2915488274</v>
+        <v>158920.7760739056</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.0140209457908</v>
+        <v>127.7492215401447</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.7895487002583</v>
+        <v>174.7921208090422</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.6847215962801</v>
+        <v>158.1102061213583</v>
       </c>
       <c r="AD5" t="n">
-        <v>108014.0209457908</v>
+        <v>127749.2215401447</v>
       </c>
       <c r="AE5" t="n">
-        <v>147789.5487002583</v>
+        <v>174792.1208090422</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.010097044331358e-06</v>
+        <v>8.802542869705619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.266493055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>133684.7215962801</v>
+        <v>158110.2061213583</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.6602439608274</v>
+        <v>327.6918710504897</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.2211923446196</v>
+        <v>448.3624747163259</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.788152233149</v>
+        <v>405.5713894100846</v>
       </c>
       <c r="AD2" t="n">
-        <v>286660.2439608274</v>
+        <v>327691.8710504897</v>
       </c>
       <c r="AE2" t="n">
-        <v>392221.1923446195</v>
+        <v>448362.4747163259</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721594756777748e-06</v>
+        <v>4.653623733050613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.567274305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>354788.152233149</v>
+        <v>405571.3894100846</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.4033594336986</v>
+        <v>183.9192624870805</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.5756852245288</v>
+        <v>251.6464488799159</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.2379356172091</v>
+        <v>227.6296649868992</v>
       </c>
       <c r="AD3" t="n">
-        <v>163403.3594336986</v>
+        <v>183919.2624870805</v>
       </c>
       <c r="AE3" t="n">
-        <v>223575.6852245288</v>
+        <v>251646.4488799159</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.997366022820984e-06</v>
+        <v>6.835050422978521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.151909722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>202237.9356172091</v>
+        <v>227629.6649868992</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.8276415513974</v>
+        <v>152.4287959507998</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.3723949956275</v>
+        <v>208.5598033036639</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.1579067715417</v>
+        <v>188.6551483919441</v>
       </c>
       <c r="AD4" t="n">
-        <v>131827.6415513974</v>
+        <v>152428.7959507998</v>
       </c>
       <c r="AE4" t="n">
-        <v>180372.3949956275</v>
+        <v>208559.8033036639</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.475448114335848e-06</v>
+        <v>7.652517520855404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>163157.9067715417</v>
+        <v>188655.1483919441</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.591117407952</v>
+        <v>142.0216796067623</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.366331059</v>
+        <v>194.3203275921895</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.4885619193873</v>
+        <v>175.7746682571386</v>
       </c>
       <c r="AD5" t="n">
-        <v>121591.117407952</v>
+        <v>142021.6796067623</v>
       </c>
       <c r="AE5" t="n">
-        <v>166366.331059</v>
+        <v>194320.3275921895</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.699970192248545e-06</v>
+        <v>8.036425252807906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>150488.5619193873</v>
+        <v>175774.6682571386</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.435161361286</v>
+        <v>137.8657235600963</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.6799686481137</v>
+        <v>188.6339651813032</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.3448979561343</v>
+        <v>170.6310042938857</v>
       </c>
       <c r="AD6" t="n">
-        <v>117435.161361286</v>
+        <v>137865.7235600963</v>
       </c>
       <c r="AE6" t="n">
-        <v>160679.9686481137</v>
+        <v>188633.9651813032</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.793726664343957e-06</v>
+        <v>8.196738371645214e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>145344.8979561343</v>
+        <v>170631.0042938857</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.1165707369879</v>
+        <v>129.4451047912088</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.8251294980945</v>
+        <v>177.1125030902356</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0986609986723</v>
+        <v>160.2091343743123</v>
       </c>
       <c r="AD2" t="n">
-        <v>105116.5707369879</v>
+        <v>129445.1047912088</v>
       </c>
       <c r="AE2" t="n">
-        <v>143825.1294980945</v>
+        <v>177112.5030902356</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.26796158009296e-06</v>
+        <v>9.148207448532706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.200086805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>130098.6609986723</v>
+        <v>160209.1343743123</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.0890877492897</v>
+        <v>152.8456652079994</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.4666054515473</v>
+        <v>209.1301822123376</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.9568101243011</v>
+        <v>189.171091138106</v>
       </c>
       <c r="AD2" t="n">
-        <v>134089.0877492898</v>
+        <v>152845.6652079994</v>
       </c>
       <c r="AE2" t="n">
-        <v>183466.6054515473</v>
+        <v>209130.1822123376</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319160670460775e-06</v>
+        <v>7.957762143598654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.251736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>165956.8101243011</v>
+        <v>189171.091138106</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.76319304335227</v>
+        <v>118.4344296474902</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.5004019633104</v>
+        <v>162.0472116019031</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.472995179486</v>
+        <v>146.581653161352</v>
       </c>
       <c r="AD3" t="n">
-        <v>99763.19304335228</v>
+        <v>118434.4296474902</v>
       </c>
       <c r="AE3" t="n">
-        <v>136500.4019633104</v>
+        <v>162047.2116019031</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.100909208100735e-06</v>
+        <v>9.398081083616511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>123472.995179486</v>
+        <v>146581.653161352</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.6878547940981</v>
+        <v>198.8291475168048</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.1744090289908</v>
+        <v>272.0468113552784</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.0160092901606</v>
+        <v>246.0830454997081</v>
       </c>
       <c r="AD2" t="n">
-        <v>169687.8547940981</v>
+        <v>198829.1475168048</v>
       </c>
       <c r="AE2" t="n">
-        <v>232174.4090289908</v>
+        <v>272046.8113552784</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.68580206896284e-06</v>
+        <v>6.584416412704584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>210016.0092901606</v>
+        <v>246083.0454997081</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.0756450794008</v>
+        <v>132.588514415777</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.7150861429569</v>
+        <v>181.4134548160129</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.9492954655026</v>
+        <v>164.0996093038064</v>
       </c>
       <c r="AD3" t="n">
-        <v>113075.6450794008</v>
+        <v>132588.514415777</v>
       </c>
       <c r="AE3" t="n">
-        <v>154715.0861429569</v>
+        <v>181413.4548160129</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802510541836158e-06</v>
+        <v>8.579334604028513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>139949.2954655026</v>
+        <v>164099.6093038064</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.5639062564124</v>
+        <v>124.9061833921963</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.437193690821</v>
+        <v>170.9021505890301</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.6523106438827</v>
+        <v>154.5914891995354</v>
       </c>
       <c r="AD4" t="n">
-        <v>105563.9062564124</v>
+        <v>124906.1833921963</v>
       </c>
       <c r="AE4" t="n">
-        <v>144437.193690821</v>
+        <v>170902.1505890301</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.02428252545598e-06</v>
+        <v>8.97551406822728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.346788194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>130652.3106438827</v>
+        <v>154591.4891995354</v>
       </c>
     </row>
   </sheetData>
